--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail7 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>3.180707343980651e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.140816126850914</v>
+        <v>2.024100762250545e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.86806480459708</v>
+        <v>3.948316587489957e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.024100762250545e-07</v>
+        <v>0.1005043894838727</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.948316587489957e-07</v>
+        <v>0.2772008104338886</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1005043894838727</v>
+        <v>0.08673729253308123</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2772008104338886</v>
+        <v>1.929057779188656</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08673729253308123</v>
+        <v>3.953743458912721</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.954930297823597</v>
+        <v>10.69605323409023</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.953743458912721</v>
+        <v>1.475971977937114e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10.69605323409023</v>
+        <v>257055455767.7367</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.475971977937114e-19</v>
+        <v>4.698987091689133e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>257055455767.7367</v>
+        <v>9752.854920571324</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.698987091689133e-10</v>
+        <v>3.468632749379906e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9752.854920571324</v>
+        <v>7.351417704402932</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.468632749379906e-06</v>
+        <v>1.70362531916217</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.351417704402932</v>
+        <v>0.0001874565068649696</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.70362531916217</v>
+        <v>8.792909049357982</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001874565068649696</v>
+        <v>0.9632847699921342</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.792909049357982</v>
+        <v>0.6690916009865489</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9632847699921342</v>
+        <v>660</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6690916009865489</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>660</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.77320415562598</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>2.45123640957438e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.858939014973572</v>
+        <v>1.533571168082179e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9.340543146938424</v>
+        <v>3.975909893971121e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.533571168082179e-07</v>
+        <v>0.09667773930791615</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.975909893971121e-07</v>
+        <v>0.2638380113923358</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09667773930791615</v>
+        <v>0.07876943977228369</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2638380113923358</v>
+        <v>1.924534808187934</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07876943977228369</v>
+        <v>3.859594602625607</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.949710797951956</v>
+        <v>10.32829257073749</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.859594602625607</v>
+        <v>1.582953510240016e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>10.32829257073749</v>
+        <v>242513370748.7349</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.582953510240016e-19</v>
+        <v>4.976986335327226e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>242513370748.7349</v>
+        <v>9309.782530226505</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.976986335327226e-10</v>
+        <v>3.793693665222363e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9309.782530226505</v>
+        <v>7.442784337372219</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.793693665222363e-06</v>
+        <v>1.599200297042733</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.442784337372219</v>
+        <v>0.0002101518073729904</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.599200297042733</v>
+        <v>8.756264058436944</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0002101518073729904</v>
+        <v>0.9638471142141772</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.756264058436944</v>
+        <v>0.6535041845358622</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9638471142141772</v>
+        <v>650</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6535041845358622</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>650</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.33472298510616</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>1.929127468299734e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.489609742927427</v>
+        <v>1.174603695213728e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.439035982523194</v>
+        <v>3.996393360265462e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.174603695213728e-07</v>
+        <v>0.0913390430327973</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.996393360265462e-07</v>
+        <v>0.2466410199262459</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0913390430327973</v>
+        <v>0.06901240923518742</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2466410199262459</v>
+        <v>1.925102400494836</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06901240923518742</v>
+        <v>3.800295168691845</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.948783729303826</v>
+        <v>10.243937018184</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.800295168691845</v>
+        <v>1.609131084357309e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>10.243937018184</v>
+        <v>238692482744.9236</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.609131084357309e-19</v>
+        <v>5.053856682904984e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>238692482744.9236</v>
+        <v>9167.879743562215</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.053856682904984e-10</v>
+        <v>3.505306366146611e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9167.879743562215</v>
+        <v>7.821457568640544</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.505306366146611e-06</v>
+        <v>1.660231104459166</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.821457568640544</v>
+        <v>0.0002144378127454778</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.660231104459166</v>
+        <v>8.821122325124916</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0002144378127454778</v>
+        <v>0.9639692337754676</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.821122325124916</v>
+        <v>0.6649972278033798</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9639692337754676</v>
+        <v>649</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6649972278033798</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>649</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.44599965784527</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>1.559100454345743e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.04792588142671</v>
+        <v>9.117370850717442e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5.300847583265838</v>
+        <v>4.011647188631035e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.117370850717442e-08</v>
+        <v>0.0842951212801052</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.011647188631035e-07</v>
+        <v>0.2257193865382163</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0842951212801052</v>
+        <v>0.05792139752170892</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2257193865382163</v>
+        <v>1.929553048151192</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05792139752170892</v>
+        <v>3.968272731218368</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948891671896407</v>
+        <v>10.05181916594862</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.968272731218368</v>
+        <v>1.671228717930231e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>10.05181916594862</v>
+        <v>230594008378.6495</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.671228717930231e-19</v>
+        <v>5.233721430774547e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>230594008378.6495</v>
+        <v>8886.524184090189</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.233721430774547e-10</v>
+        <v>3.093015698309018e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8886.524184090189</v>
+        <v>8.359359558549992</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.093015698309018e-06</v>
+        <v>1.764429209693668</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.359359558549992</v>
+        <v>0.0002161365106451157</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.764429209693668</v>
+        <v>8.93563493195888</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0002161365106451157</v>
+        <v>0.9634056319308654</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.93563493195888</v>
+        <v>0.6684631199412356</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9634056319308654</v>
+        <v>640</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6684631199412356</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>640</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>20.46746731563155</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>1.300095498108613e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.579328108057253</v>
+        <v>7.186075654994726e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.200558207267258</v>
+        <v>4.023037519539922e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.186075654994726e-08</v>
+        <v>0.07555531443979213</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.023037519539922e-07</v>
+        <v>0.2016495384900986</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07555531443979213</v>
+        <v>0.046266947368675</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2016495384900986</v>
+        <v>1.931376364306089</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.046266947368675</v>
+        <v>3.551426281419226</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.950583012413684</v>
+        <v>10.12943252134759</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.551426281419226</v>
+        <v>1.645716382485299e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>10.12943252134759</v>
+        <v>231266493391.9172</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.645716382485299e-19</v>
+        <v>5.211155488121108e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>231266493391.9172</v>
+        <v>8801.980927637889</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.211155488121108e-10</v>
+        <v>2.593094439361838e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8801.980927637889</v>
+        <v>6.525278302047641</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.593094439361838e-06</v>
+        <v>1.835891344140872</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.525278302047641</v>
+        <v>0.0001104120343492685</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.835891344140872</v>
+        <v>8.979329158519676</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001104120343492685</v>
+        <v>0.9641257088810725</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.979329158519676</v>
+        <v>0.6380615469935008</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9641257088810725</v>
+        <v>620</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6380615469935008</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>620</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>20.12298665731984</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>1.121441721281229e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.149557317074682</v>
+        <v>5.762590342195426e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.461125566901484</v>
+        <v>4.031554199140992e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.762590342195426e-08</v>
+        <v>0.06551335645083382</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.031554199140992e-07</v>
+        <v>0.1759268094307677</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.06551335645083382</v>
+        <v>0.03516657724021935</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1759268094307677</v>
+        <v>1.929047999235302</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03516657724021935</v>
+        <v>3.718499996339172</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.949630585488153</v>
+        <v>10.46227066150901</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.718499996339172</v>
+        <v>1.542671021209428e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>10.46227066150901</v>
+        <v>234215578118.588</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.542671021209428e-19</v>
+        <v>5.130218321164876e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>234215578118.588</v>
+        <v>8462.620707377411</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.130218321164876e-10</v>
+        <v>3.125572979711368e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8462.620707377411</v>
+        <v>7.226179236218073</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.125572979711368e-06</v>
+        <v>1.644729521574208</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.226179236218073</v>
+        <v>0.0001632101270194871</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.644729521574208</v>
+        <v>8.877677665851857</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001632101270194871</v>
+        <v>0.9642809469388919</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.877677665851857</v>
+        <v>0.6476498508853097</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9642809469388919</v>
+        <v>603</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6476498508853097</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>603</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>19.76081801305788</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>9.994376749623575e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.8092584977030816</v>
+        <v>4.726992415278131e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.257112385862448</v>
+        <v>4.037933403274542e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.726992415278131e-08</v>
+        <v>0.05519660889676584</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.037933403274542e-07</v>
+        <v>0.1526090308380212</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05519660889676584</v>
+        <v>0.0262865079363589</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1526090308380212</v>
+        <v>1.927021212337242</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0262865079363589</v>
+        <v>3.488165880146041</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.951707050839037</v>
+        <v>10.4530771688771</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.488165880146041</v>
+        <v>1.545385776150002e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>10.4530771688771</v>
+        <v>238047899659.9204</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.545385776150002e-19</v>
+        <v>5.050605528161593e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>238047899659.9204</v>
+        <v>8757.207061362573</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.050605528161593e-10</v>
+        <v>3.46158434455936e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8757.207061362573</v>
+        <v>7.555865850829758</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.46158434455936e-06</v>
+        <v>1.563250096203613</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.555865850829758</v>
+        <v>0.0001976256882823892</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.563250096203613</v>
+        <v>8.83719594832548</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001976256882823892</v>
+        <v>0.9636955416963749</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.83719594832548</v>
+        <v>0.6498326600886882</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9636955416963749</v>
+        <v>612</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6498326600886882</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>612</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>19.91156778750624</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>9.157036487273906e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.56767186195512</v>
+        <v>3.981484235164157e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.4667374351299252</v>
+        <v>4.0427391934065e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.981484235164157e-08</v>
+        <v>0.04555453253452469</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.0427391934065e-07</v>
+        <v>0.1348870031853406</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04555453253452469</v>
+        <v>0.02023911049412152</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1348870031853406</v>
+        <v>1.924267092561653</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02023911049412152</v>
+        <v>3.872951375125565</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.951287820799236</v>
+        <v>10.47816092312405</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.872951375125565</v>
+        <v>1.537995609403974e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>10.47816092312405</v>
+        <v>239092221956.6592</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.537995609403974e-19</v>
+        <v>5.025751157418407e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>239092221956.6592</v>
+        <v>8791.965835424555</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.025751157418407e-10</v>
+        <v>3.294798297188828e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8791.965835424555</v>
+        <v>7.813442477406292</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.294798297188828e-06</v>
+        <v>1.719703518295536</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.813442477406292</v>
+        <v>0.0002011470516977004</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.719703518295536</v>
+        <v>8.875542408454919</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0002011470516977004</v>
+        <v>0.9627273122165522</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.875542408454919</v>
+        <v>0.67392275454329</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9627273122165522</v>
+        <v>617</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.67392275454329</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>20.31964618008214</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>8.572542898363949e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4068016523099489</v>
+        <v>3.446742671708936e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8592998379616477</v>
+        <v>4.046387271777108e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.446742671708936e-08</v>
+        <v>0.03709138646121643</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.046387271777108e-07</v>
+        <v>0.123577905942898</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03709138646121643</v>
+        <v>0.01662916280368376</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.123577905942898</v>
+        <v>1.92445204254564</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01662916280368376</v>
+        <v>3.519498613913469</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.954158042432608</v>
+        <v>10.29727890809896</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.519498613913469</v>
+        <v>1.592503045950367e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>10.29727890809896</v>
+        <v>234479132334.5457</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.592503045950367e-19</v>
+        <v>5.14253466951786e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>234479132334.5457</v>
+        <v>8755.65555920885</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.14253466951786e-10</v>
+        <v>3.45897637563166e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8755.65555920885</v>
+        <v>8.544884848008639</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.45897637563166e-06</v>
+        <v>1.737521650755139</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.544884848008639</v>
+        <v>0.0002525573574557493</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.737521650755139</v>
+        <v>8.884302571768806</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0002525573574557493</v>
+        <v>0.9630604805251456</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.884302571768806</v>
+        <v>0.6573457390848034</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9630604805251456</v>
+        <v>613</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6573457390848034</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>20.08708292710908</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>8.154709061392658e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3016160901270064</v>
+        <v>3.062891997663756e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.056910103538359</v>
+        <v>4.049177576282343e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.062891997663756e-08</v>
+        <v>0.02992251781747748</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.049177576282343e-07</v>
+        <v>0.1177028355579805</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02992251781747748</v>
+        <v>0.01473888493927061</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1177028355579805</v>
+        <v>1.914583879031402</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01473888493927061</v>
+        <v>3.348806897000149</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.946355518787547</v>
+        <v>10.35055276822732</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.348806897000149</v>
+        <v>1.576152140720581e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.35055276822732</v>
+        <v>237321391981.1218</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.576152140720581e-19</v>
+        <v>5.057244154205062e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>237321391981.1218</v>
+        <v>8877.116309770316</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.057244154205062e-10</v>
+        <v>3.222869160408277e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8877.116309770316</v>
+        <v>8.090360659588614</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.222869160408277e-06</v>
+        <v>1.554387074940314</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.090360659588614</v>
+        <v>0.0002109494704797413</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.554387074940314</v>
+        <v>8.873677300731378</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0002109494704797413</v>
+        <v>0.9640930603689614</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.873677300731378</v>
+        <v>0.6934842000801184</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9640930603689614</v>
+        <v>610</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6934842000801184</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>610</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>19.75137094509029</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>7.847916381109933e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2310660981476545</v>
+        <v>2.789944611398155e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.151385322250894</v>
+        <v>4.051327643917661e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.789944611398155e-08</v>
+        <v>0.02408999524574811</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.051327643917661e-07</v>
+        <v>0.1157091651855685</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02408999524574811</v>
+        <v>0.01396326842076348</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1157091651855685</v>
+        <v>1.913845980830833</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01396326842076348</v>
+        <v>3.410797151714562</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.945357037190599</v>
+        <v>9.753011112236159</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.410797151714562</v>
+        <v>1.775202029244475e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.753011112236159</v>
+        <v>209987642006.6635</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.775202029244475e-19</v>
+        <v>5.71630992958168e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>209987642006.6635</v>
+        <v>7827.719582815389</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.71630992958168e-10</v>
+        <v>3.548064587770689e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7827.719582815389</v>
+        <v>8.325293014955166</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3.548064587770689e-06</v>
+        <v>1.502196665873734</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.325293014955166</v>
+        <v>0.0002459181440396126</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.502196665873734</v>
+        <v>8.819886220731957</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0002459181440396126</v>
+        <v>0.9647093648732225</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.819886220731957</v>
+        <v>0.7138869948282668</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9647093648732225</v>
+        <v>590</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7138869948282668</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>19.53398229119012</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>7.615310291844764e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1803952674332596</v>
+        <v>2.599388551712954e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.19670435553617</v>
+        <v>4.053005924684706e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.599388551712954e-08</v>
+        <v>0.01954075798564289</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.053005924684706e-07</v>
+        <v>0.1160568407157336</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01954075798564289</v>
+        <v>0.0138480347562614</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1160568407157336</v>
+        <v>1.920187094206101</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0138480347562614</v>
+        <v>3.924508473346101</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.949962809076828</v>
+        <v>9.124472546996916</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.924508473346101</v>
+        <v>2.028194898676966e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.124472546996916</v>
+        <v>191403576146.8902</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.028194898676966e-19</v>
+        <v>6.298083990378457e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>191403576146.8902</v>
+        <v>7430.35873117126</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.298083990378457e-10</v>
+        <v>3.572272018449695e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7430.35873117126</v>
+        <v>8.795052655929423</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.572272018449695e-06</v>
+        <v>1.599057177052981</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.795052655929423</v>
+        <v>0.0002763257831897507</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.599057177052981</v>
+        <v>8.813188939545816</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0002763257831897507</v>
+        <v>0.9639854190617952</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.813188939545816</v>
+        <v>0.7134867083320415</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9639854190617952</v>
+        <v>565</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7134867083320415</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>565</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>19.95514840161212</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>7.432915807388237e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1405848153084877</v>
+        <v>2.46774894726495e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.221083329332253</v>
+        <v>4.0543378945497e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.46774894726495e-08</v>
+        <v>0.0160295539607317</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.0543378945497e-07</v>
+        <v>0.117543031360925</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0160295539607317</v>
+        <v>0.01407172155567724</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.117543031360925</v>
+        <v>1.922540828694865</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01407172155567724</v>
+        <v>3.842845102809186</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.951777536871131</v>
+        <v>8.777361791126673</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.842845102809186</v>
+        <v>2.191781335059826e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.777361791126673</v>
+        <v>178330603673.9147</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.191781335059826e-19</v>
+        <v>6.745657515992007e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>178330603673.9147</v>
+        <v>6970.260088147835</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.745657515992007e-10</v>
+        <v>4.585593410997512e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>6970.260088147835</v>
+        <v>10.13484472442096</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>4.585593410997512e-06</v>
+        <v>1.506594043980962</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.13484472442096</v>
+        <v>0.0004710095829981967</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.506594043980962</v>
+        <v>8.695648875012811</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0004710095829981967</v>
+        <v>0.9632253254584227</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.695648875012811</v>
+        <v>0.7123217547781655</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9632253254584227</v>
+        <v>528</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7123217547781655</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>528</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>19.4298939919384</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>7.285511474711768e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1067082382085475</v>
+        <v>2.376474680414948e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.237947837362853</v>
+        <v>4.055413534590034e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.376474680414948e-08</v>
+        <v>0.01332890618807661</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.055413534590034e-07</v>
+        <v>0.1194073563487155</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01332890618807661</v>
+        <v>0.01443491991655214</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1194073563487155</v>
+        <v>1.919034902810663</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01443491991655214</v>
+        <v>3.769163597264316</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.952988305144774</v>
+        <v>8.262487861028834</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.769163597264316</v>
+        <v>2.254776287741218e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.262487861028834</v>
+        <v>166949476902.0321</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.254776287741218e-19</v>
+        <v>7.193366576737012e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>166949476902.0321</v>
+        <v>6284.541293770345</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.193366576737012e-10</v>
+        <v>7.677022836813879e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6284.541293770345</v>
+        <v>9.784692838076847</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.677022836813879e-06</v>
+        <v>1.306107758280673</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.784692838076847</v>
+        <v>0.0007349998087843746</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.306107758280673</v>
+        <v>8.391216131543789</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0007349998087843746</v>
+        <v>0.9630371966929936</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.391216131543789</v>
+        <v>0.6920069047804696</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9630371966929936</v>
+        <v>480</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6920069047804696</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>17.48658691280791</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>7.163242347734776e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07627214009680967</v>
+        <v>2.312216038622274e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.253153214894027</v>
+        <v>4.056298249969907e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.312216038622274e-08</v>
+        <v>0.01126199303978685</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.056298249969907e-07</v>
+        <v>0.1212787831076226</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01126199303978685</v>
+        <v>0.01483490630133184</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1212787831076226</v>
+        <v>1.929979946575917</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01483490630133184</v>
+        <v>3.233199921843294</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.960700298529583</v>
+        <v>7.622406193258173</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.233199921843294</v>
+        <v>2.562417764890545e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>7.622406193258173</v>
+        <v>147130803674.0258</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.562417764890545e-19</v>
+        <v>8.178171620870694e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>147130803674.0258</v>
+        <v>5546.987037892846</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.178171620870694e-10</v>
+        <v>9.558775765740175e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5546.987037892846</v>
+        <v>10.08594603076476</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.558775765740175e-06</v>
+        <v>1.20260594907541</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.08594603076476</v>
+        <v>0.0009723789612968098</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.20260594907541</v>
+        <v>8.208596549656972</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0009723789612968098</v>
+        <v>0.9637089654499511</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.208596549656972</v>
+        <v>0.6913185144034968</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9637089654499511</v>
+        <v>436</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6913185144034968</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>16.62985055331639</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>7.059171995363331e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.0480179264331218</v>
+        <v>2.266622695972671e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.268884321116514</v>
+        <v>4.057042826018309e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.266622695972671e-08</v>
+        <v>0.009783256325688352</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.057042826018309e-07</v>
+        <v>0.123002325333819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.009783256325688352</v>
+        <v>0.01522507225285915</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.123002325333819</v>
+        <v>1.930748005077828</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01522507225285915</v>
+        <v>3.524908564117775</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.957526960397957</v>
+        <v>7.497992807748665</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.524908564117775</v>
+        <v>3.237375386360972e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.497992807748665</v>
+        <v>109926187801.4427</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.237375386360972e-19</v>
+        <v>1.095243275181446e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>109926187801.4427</v>
+        <v>3911.9689098107</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.095243275181446e-09</v>
+        <v>7.434913608704794e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3911.9689098107</v>
+        <v>10.09472179717564</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>7.434913608704794e-06</v>
+        <v>1.228983325868096</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.09472179717564</v>
+        <v>0.0007576430361198256</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.228983325868096</v>
+        <v>8.374480666364006</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0007576430361198256</v>
+        <v>0.9641556652775797</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.374480666364006</v>
+        <v>0.7364011238704348</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9641556652775797</v>
+        <v>391</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7364011238704348</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>391</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>17.39613305794337</v>
       </c>
     </row>
@@ -6043,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.340610705979612</v>
+        <v>1.344679275598194</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.27890258840933</v>
@@ -6132,7 +6024,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.366201477139075</v>
+        <v>1.369430104925825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.008996651028549</v>
@@ -6221,7 +6113,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.3849395956217</v>
+        <v>1.386939857285676</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255131855546995</v>
@@ -6310,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.381043984218983</v>
+        <v>1.383184336750314</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.163955943202146</v>
@@ -6399,7 +6291,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.400997695620464</v>
+        <v>1.403948708193356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.238264276553512</v>
@@ -6488,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.413949587653994</v>
+        <v>1.419571600525776</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.244477798706774</v>
@@ -6577,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473145503266542</v>
+        <v>1.475507898770213</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.1634476417179</v>
@@ -6666,7 +6558,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.464828401735562</v>
+        <v>1.470465708270368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.55962682907714</v>
@@ -6755,7 +6647,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469541088571505</v>
+        <v>1.471772153484722</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.484589536995005</v>
@@ -6844,7 +6736,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463974205608623</v>
+        <v>1.471767482166837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.447564741628191</v>
@@ -6933,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.472030497535651</v>
+        <v>1.480108672405528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.363121115543848</v>
@@ -7022,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475615186553792</v>
+        <v>1.479476513783819</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.545399809215301</v>
@@ -7111,7 +7003,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.483641870667391</v>
+        <v>1.494532056553064</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.319718606418458</v>
@@ -7200,7 +7092,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.478770539245971</v>
+        <v>1.490039428596597</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.569451230146332</v>
@@ -7289,7 +7181,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481512056219839</v>
+        <v>1.490503844133038</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.521943824264805</v>
@@ -7378,7 +7270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.429345908129604</v>
+        <v>1.439404858561754</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.399732859076522</v>
@@ -7467,7 +7359,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429957562289561</v>
+        <v>1.439354378903656</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.437974819035539</v>
@@ -7556,7 +7448,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.435680162393485</v>
+        <v>1.448960206669391</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.391782535047979</v>
@@ -7645,7 +7537,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.432045466003049</v>
+        <v>1.443687387570696</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.365878326727557</v>
@@ -7734,7 +7626,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.44409905652397</v>
+        <v>1.453243892626819</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.33841585659805</v>
@@ -7823,7 +7715,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.457406045573133</v>
+        <v>1.467157599423327</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.450109092085196</v>
@@ -7912,7 +7804,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.468115051482482</v>
+        <v>1.479044802590446</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.510481822530827</v>
@@ -8001,7 +7893,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479904074846065</v>
+        <v>1.491948790205052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.313229609014336</v>
@@ -8090,7 +7982,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.479772193710083</v>
+        <v>1.49081940715909</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.358827228076462</v>
@@ -8179,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463220568937495</v>
+        <v>1.477255668015851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.514139478966874</v>
@@ -8268,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.457089788244323</v>
+        <v>1.474640852543466</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.337166446165304</v>
@@ -8357,7 +8249,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.440260958446036</v>
+        <v>1.459219791250592</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.522324200204369</v>
@@ -8446,7 +8338,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.448147666820658</v>
+        <v>1.463743050278702</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.514676833956791</v>
@@ -8535,7 +8427,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.426768374901369</v>
+        <v>1.434208473252863</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.374926428302373</v>
@@ -8624,7 +8516,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.36003789787573</v>
+        <v>1.377859447339547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.265359642845587</v>
@@ -8713,7 +8605,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.382797939962087</v>
+        <v>1.405198260670028</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.341162952997232</v>
@@ -8802,7 +8694,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.385702213765838</v>
+        <v>1.409557398475882</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.384884625590067</v>
@@ -8891,7 +8783,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.379455119710794</v>
+        <v>1.401576046857013</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.237750573986562</v>
@@ -8980,7 +8872,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.397875091802887</v>
+        <v>1.420638999218326</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.359796059010644</v>
@@ -9069,7 +8961,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.400840795783088</v>
+        <v>1.424339445216913</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.425197281651323</v>
@@ -9158,7 +9050,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.400761350655851</v>
+        <v>1.421090517041563</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.321931398780023</v>
@@ -9247,7 +9139,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.408023670869692</v>
+        <v>1.431791184850549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.392349990084885</v>
@@ -9336,7 +9228,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.419075512470089</v>
+        <v>1.441380427019744</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.308812174273369</v>
@@ -9425,7 +9317,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42708526339685</v>
+        <v>1.447550311060352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.381042049757887</v>
@@ -9514,7 +9406,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.441340059467236</v>
+        <v>1.464523792092264</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.367003554849638</v>
@@ -9603,7 +9495,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453772952136208</v>
+        <v>1.473183964926764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.437176698936526</v>
@@ -9692,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.483291902924495</v>
+        <v>1.499807510453041</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.36610154377948</v>
@@ -9781,7 +9673,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.508437570986807</v>
+        <v>1.526821895355618</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.273587640914206</v>
@@ -9870,7 +9762,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.57863963945369</v>
+        <v>1.587025381687394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.113318625674615</v>
@@ -9959,7 +9851,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.692076930445986</v>
+        <v>1.686455908698063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.606120065733443</v>
@@ -10048,7 +9940,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.74404857876946</v>
+        <v>1.734584536974942</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.829535580470945</v>
@@ -10137,7 +10029,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.751744987582003</v>
+        <v>1.738121370659145</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.813463517025938</v>
@@ -10226,7 +10118,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.783801130763084</v>
+        <v>1.762121245501288</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.906135454768201</v>
@@ -10315,7 +10207,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.785792204163098</v>
+        <v>1.76617548110149</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.839506931711686</v>
@@ -10404,7 +10296,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.790285589756916</v>
+        <v>1.766689504537379</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.038786163324422</v>
@@ -10493,7 +10385,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.793864492933555</v>
+        <v>1.771945240864794</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.228120293892922</v>
@@ -10582,7 +10474,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.787777836989106</v>
+        <v>1.763632154602013</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.046776856004768</v>
@@ -10671,7 +10563,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.793442051474564</v>
+        <v>1.767270244236336</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.832046083444532</v>
@@ -10760,7 +10652,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.810451666620071</v>
+        <v>1.784839979393644</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.336248003389489</v>
@@ -10849,7 +10741,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.800921906883135</v>
+        <v>1.775815063133342</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.670864809336418</v>
@@ -10938,7 +10830,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.765438409907823</v>
+        <v>1.73422629775552</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.64443270521066</v>
@@ -11027,7 +10919,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.721375729181124</v>
+        <v>1.710981218977467</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.606331787055909</v>
@@ -11116,7 +11008,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.722505905239243</v>
+        <v>1.714503137432824</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.604213226939407</v>
@@ -11205,7 +11097,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.709264141092429</v>
+        <v>1.709965530589263</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.635512288571905</v>
@@ -11294,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.711487516622274</v>
+        <v>1.711472410014235</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.669127267139357</v>
@@ -11383,7 +11275,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.656975638472492</v>
+        <v>1.664574411857542</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.768056895024301</v>
@@ -11669,7 +11561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.403540585503876</v>
+        <v>1.375856489618983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.500534730927611</v>
@@ -11758,7 +11650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.397051866494105</v>
+        <v>1.374192293474898</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.416772355808967</v>
@@ -11847,7 +11739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.403006263902061</v>
+        <v>1.374926828840555</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.468601942536631</v>
@@ -11936,7 +11828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.407126402117703</v>
+        <v>1.373696630053681</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.555557687054873</v>
@@ -12025,7 +11917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.40349880042311</v>
+        <v>1.367417779551568</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.36111194232943</v>
@@ -12114,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.400018986515943</v>
+        <v>1.374586227464372</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.213566234949477</v>
@@ -12203,7 +12095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.388482707370297</v>
+        <v>1.360502305055023</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.475497389007634</v>
@@ -12292,7 +12184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.383978582923849</v>
+        <v>1.359265661918421</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.500093635333057</v>
@@ -12381,7 +12273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.376213277029449</v>
+        <v>1.345929506164279</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.525443811188388</v>
@@ -12470,7 +12362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.370395663204221</v>
+        <v>1.344285677221388</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.527306396626094</v>
@@ -12559,7 +12451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.352819674422214</v>
+        <v>1.323762358760167</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.495769888984716</v>
@@ -12648,7 +12540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.359701153697323</v>
+        <v>1.317034118799358</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.490031413936743</v>
@@ -12737,7 +12629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.367640734080765</v>
+        <v>1.323031072234711</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.428210362753132</v>
@@ -12826,7 +12718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.365322029073049</v>
+        <v>1.318809346445849</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.548675581502863</v>
@@ -12915,7 +12807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.351757579343413</v>
+        <v>1.305547616519061</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.509032110561798</v>
@@ -13004,7 +12896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.345950993982495</v>
+        <v>1.301838878850277</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.465213433324453</v>
@@ -13093,7 +12985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.351650211106369</v>
+        <v>1.305241721961908</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.676428451590622</v>
@@ -13182,7 +13074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.33169460170567</v>
+        <v>1.290316733911678</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.630420264821928</v>
@@ -13271,7 +13163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.317798078064967</v>
+        <v>1.280623245946838</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.518580033626856</v>
@@ -13360,7 +13252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.329910762888882</v>
+        <v>1.291114986372148</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.443072873113116</v>
@@ -13449,7 +13341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.331054372028092</v>
+        <v>1.286052911468191</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.452089177057232</v>
@@ -13538,7 +13430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.342569782200316</v>
+        <v>1.301776124014016</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.425226459509203</v>
@@ -13627,7 +13519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.349846452607766</v>
+        <v>1.306897801105938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.594824592822316</v>
@@ -13716,7 +13608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.35563929302083</v>
+        <v>1.313898189179956</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.738702990890207</v>
@@ -13805,7 +13697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.369540937476176</v>
+        <v>1.307543662440754</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.568387822748539</v>
@@ -13894,7 +13786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.352578581548538</v>
+        <v>1.300961061301979</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462450090836276</v>
@@ -13983,7 +13875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.345705671809783</v>
+        <v>1.306853554900677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.346541835358253</v>
@@ -14072,7 +13964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.342779256849765</v>
+        <v>1.302957836701196</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.18938633213395</v>
@@ -14161,7 +14053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.341521300167218</v>
+        <v>1.301221824677515</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.51251275169821</v>
@@ -14250,7 +14142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.344530078536676</v>
+        <v>1.300014320616537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.382998800124287</v>
@@ -14339,7 +14231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.345135749453051</v>
+        <v>1.292630733618523</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.58799000342985</v>
@@ -14428,7 +14320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.342298844182453</v>
+        <v>1.288171530308843</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.53771919106075</v>
@@ -14517,7 +14409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.349169257119485</v>
+        <v>1.293091594688337</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.289145739786236</v>
@@ -14606,7 +14498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.362431050407643</v>
+        <v>1.306440120939023</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.414685121905198</v>
@@ -14695,7 +14587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.366404893798704</v>
+        <v>1.312468742412005</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.319987553568708</v>
@@ -14784,7 +14676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.361103086987944</v>
+        <v>1.31074897294727</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.362604093212751</v>
@@ -14873,7 +14765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.352830412584138</v>
+        <v>1.302035718486573</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.359908545672222</v>
@@ -14962,7 +14854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.341126973093039</v>
+        <v>1.290658289488104</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.435146971233891</v>
@@ -15051,7 +14943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.347867361919606</v>
+        <v>1.299436405846755</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.426460417814346</v>
@@ -15140,7 +15032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.315898675169061</v>
+        <v>1.280160268933226</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.29259718301087</v>
@@ -15229,7 +15121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.320371102617896</v>
+        <v>1.274719755449096</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.489886406157859</v>
@@ -15318,7 +15210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.314496622695866</v>
+        <v>1.263007339151117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.516274201977081</v>
@@ -15407,7 +15299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.31759712644867</v>
+        <v>1.267920581647164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.274176250473595</v>
@@ -15496,7 +15388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.327099842420534</v>
+        <v>1.277241524324065</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.385405054676637</v>
@@ -15585,7 +15477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.296777042182013</v>
+        <v>1.253825965276933</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.933827862364092</v>
@@ -15674,7 +15566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.292406710608522</v>
+        <v>1.258461724687038</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.963957815603564</v>
@@ -15763,7 +15655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.297809190947089</v>
+        <v>1.268432417362256</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.922862048018403</v>
@@ -15852,7 +15744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.307873699643224</v>
+        <v>1.276359486729965</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.969772832743599</v>
@@ -15941,7 +15833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.307480098881404</v>
+        <v>1.274895610157516</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.861083550540631</v>
@@ -16030,7 +15922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.307865039362554</v>
+        <v>1.277443519968837</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.815129292006947</v>
@@ -16119,7 +16011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.312503367812594</v>
+        <v>1.282913645359365</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.898424980995797</v>
@@ -16208,7 +16100,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.315476025825014</v>
+        <v>1.2826883861077</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.816626672770307</v>
@@ -16297,7 +16189,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.314973187084479</v>
+        <v>1.288189403180143</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.930803927208971</v>
@@ -16386,7 +16278,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.316041676276571</v>
+        <v>1.295641512990415</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.794174730021901</v>
@@ -16475,7 +16367,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.330732778629884</v>
+        <v>1.313389926321718</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.942809658874339</v>
@@ -16564,7 +16456,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.361834812747459</v>
+        <v>1.349001130228216</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.820777559602971</v>
@@ -16653,7 +16545,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.369762556189123</v>
+        <v>1.364262005807781</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.762547607167459</v>
@@ -16742,7 +16634,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.382409084981212</v>
+        <v>1.380850004807409</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.755405774687472</v>
@@ -16831,7 +16723,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.375130314598574</v>
+        <v>1.378858636127008</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.746306346894714</v>
@@ -16920,7 +16812,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.448271073588203</v>
+        <v>1.454851453347352</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.12278872946591</v>
@@ -17009,7 +16901,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458415752767013</v>
+        <v>1.464303640290585</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.42578144934422</v>
@@ -17295,7 +17187,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448726472994001</v>
+        <v>1.448886970066138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.456170054724049</v>
@@ -17384,7 +17276,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.450926131337982</v>
+        <v>1.450910638834078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.452954125629565</v>
@@ -17473,7 +17365,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.452984823624835</v>
+        <v>1.452275604321436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.387582157285473</v>
@@ -17562,7 +17454,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446076587647589</v>
+        <v>1.447774225666338</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.585130085061599</v>
@@ -17651,7 +17543,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.446440130230318</v>
+        <v>1.448278841266491</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.547068929024082</v>
@@ -17740,7 +17632,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.457120426758898</v>
+        <v>1.460321715595658</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.210700112667412</v>
@@ -17829,7 +17721,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.449305010750083</v>
+        <v>1.456154683771411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.593767414601174</v>
@@ -17918,7 +17810,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.452617053347287</v>
+        <v>1.458429481711344</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.409849578237434</v>
@@ -18007,7 +17899,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.462479070016254</v>
+        <v>1.467435933449038</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.462283602436504</v>
@@ -18096,7 +17988,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.473153344052711</v>
+        <v>1.478556016755627</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.330771653406755</v>
@@ -18185,7 +18077,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.476779433758514</v>
+        <v>1.479475074160903</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.547885239042553</v>
@@ -18274,7 +18166,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490967551142489</v>
+        <v>1.500225658622021</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.563045422321226</v>
@@ -18363,7 +18255,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.496881045794183</v>
+        <v>1.512363565579485</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.622479846813548</v>
@@ -18452,7 +18344,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.489804278854166</v>
+        <v>1.505661223710866</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.505214660752737</v>
@@ -18541,7 +18433,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493411347164089</v>
+        <v>1.498668459347333</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.55459639069754</v>
@@ -18630,7 +18522,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478433597962451</v>
+        <v>1.48850213842115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.709482911197354</v>
@@ -18719,7 +18611,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.489662312140269</v>
+        <v>1.501531100001845</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.694686269072079</v>
@@ -18808,7 +18700,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49492379267947</v>
+        <v>1.50971483524563</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.510146005526809</v>
@@ -18897,7 +18789,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.493309004694378</v>
+        <v>1.506394481679187</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.635393992842746</v>
@@ -18986,7 +18878,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.483021053238421</v>
+        <v>1.495641597135067</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.590554741043191</v>
@@ -19075,7 +18967,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475015410222193</v>
+        <v>1.491866033793889</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.592884302907009</v>
@@ -19164,7 +19056,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.495311489573286</v>
+        <v>1.509886726559085</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.460362452154747</v>
@@ -19253,7 +19145,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506733916732137</v>
+        <v>1.523288264659936</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.724908582027504</v>
@@ -19342,7 +19234,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.505730154555239</v>
+        <v>1.52568865228452</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725825454728792</v>
@@ -19431,7 +19323,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488654406728274</v>
+        <v>1.511657680307515</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.689992393829591</v>
@@ -19520,7 +19412,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502141679955115</v>
+        <v>1.523564708734407</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.598921598080513</v>
@@ -19609,7 +19501,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.485457373433376</v>
+        <v>1.50402445039803</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.448669641163535</v>
@@ -19698,7 +19590,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.501148908592195</v>
+        <v>1.518848246647035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.64007432078618</v>
@@ -19787,7 +19679,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.505183409236012</v>
+        <v>1.523327511177655</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.671622269481719</v>
@@ -19876,7 +19768,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.511874198454712</v>
+        <v>1.523016735648674</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.362070694904423</v>
@@ -19965,7 +19857,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495874763785162</v>
+        <v>1.51464877418963</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.532045331783524</v>
@@ -20054,7 +19946,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491411849748516</v>
+        <v>1.507160309239141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.505036857283408</v>
@@ -20143,7 +20035,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.491563598697679</v>
+        <v>1.505967990120849</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.609568761326575</v>
@@ -20232,7 +20124,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.499843652538092</v>
+        <v>1.513892040466942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.511703396810391</v>
@@ -20321,7 +20213,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514860469047822</v>
+        <v>1.522603703206141</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.647022816874681</v>
@@ -20410,7 +20302,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516771057626482</v>
+        <v>1.52146594999746</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.444223037393682</v>
@@ -20499,7 +20391,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.515539902042048</v>
+        <v>1.517183911671923</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.645527176743316</v>
@@ -20588,7 +20480,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517085710188286</v>
+        <v>1.516228841786239</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.56401844861433</v>
@@ -20677,7 +20569,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523971163295731</v>
+        <v>1.514975334740629</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.534968598277068</v>
@@ -20766,7 +20658,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538442409458869</v>
+        <v>1.526818474184538</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.43609267602102</v>
@@ -20855,7 +20747,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537862224776429</v>
+        <v>1.52660897374589</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.365420438216709</v>
@@ -20944,7 +20836,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569707999918975</v>
+        <v>1.552564124283965</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.303821951488262</v>
@@ -21033,7 +20925,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584799978718292</v>
+        <v>1.570190545081475</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.53162289986351</v>
@@ -21122,7 +21014,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590267206256495</v>
+        <v>1.574056036463346</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.380331558425178</v>
@@ -21211,7 +21103,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614710332636994</v>
+        <v>1.599480044517824</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.541408295748734</v>
@@ -21300,7 +21192,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.637930425015013</v>
+        <v>1.625679191597483</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.96217449658878</v>
@@ -21389,7 +21281,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647911287074117</v>
+        <v>1.63044627648837</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.887842122427279</v>
@@ -21478,7 +21370,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648899809410614</v>
+        <v>1.635167139522589</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.937588475353346</v>
@@ -21567,7 +21459,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652873307096205</v>
+        <v>1.637537346930205</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.76497102933418</v>
@@ -21656,7 +21548,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656736074608031</v>
+        <v>1.644667102226091</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.969137974866626</v>
@@ -21745,7 +21637,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.668089317180223</v>
+        <v>1.662090174232143</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.946289785395629</v>
@@ -21834,7 +21726,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.687400241540789</v>
+        <v>1.678227133304378</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.638554914200561</v>
@@ -21923,7 +21815,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688581496469721</v>
+        <v>1.681739924718317</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.141757071512663</v>
@@ -22012,7 +21904,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.671736922982243</v>
+        <v>1.673872391401837</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.451873809104347</v>
@@ -22101,7 +21993,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.676500591523344</v>
+        <v>1.677724081193597</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.274885685533071</v>
@@ -22190,7 +22082,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.678911931390382</v>
+        <v>1.677699623367018</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.394888862933927</v>
@@ -22279,7 +22171,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.670470774389822</v>
+        <v>1.672464172350732</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.2139933556655</v>
@@ -22368,7 +22260,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.667719164328406</v>
+        <v>1.67198509403668</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.593244220196421</v>
@@ -22457,7 +22349,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.665379260265495</v>
+        <v>1.669022648693968</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.587834608330804</v>
@@ -22546,7 +22438,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.666076688602318</v>
+        <v>1.66207159645051</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.119926248492602</v>
@@ -22635,7 +22527,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.663824067032173</v>
+        <v>1.657623539617219</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.42480969739793</v>
@@ -22921,7 +22813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.487308634260389</v>
+        <v>1.492968849973485</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.386714072578581</v>
@@ -23010,7 +22902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.487225832102605</v>
+        <v>1.491784069057869</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.27637378070887</v>
@@ -23099,7 +22991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.492176120271196</v>
+        <v>1.495560436890603</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.275844222769028</v>
@@ -23188,7 +23080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487964828490416</v>
+        <v>1.485317094410493</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.444328013593675</v>
@@ -23277,7 +23169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.491866619284143</v>
+        <v>1.489807816267375</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.511521957716463</v>
@@ -23366,7 +23258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499474575616387</v>
+        <v>1.495701538019231</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.305336504383646</v>
@@ -23455,7 +23347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478354538969946</v>
+        <v>1.476233843375001</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.402376215269071</v>
@@ -23544,7 +23436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.483450331995868</v>
+        <v>1.482523485939262</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.414570677656537</v>
@@ -23633,7 +23525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.479732884896234</v>
+        <v>1.476928308128795</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.582846766980395</v>
@@ -23722,7 +23614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490318570799887</v>
+        <v>1.49091248469596</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.322582848310041</v>
@@ -23811,7 +23703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491857313676804</v>
+        <v>1.493294599123229</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.438417597567826</v>
@@ -23900,7 +23792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.499190936317281</v>
+        <v>1.500432942672965</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.387759494040224</v>
@@ -23989,7 +23881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50547253864364</v>
+        <v>1.508100288205468</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.775812714455788</v>
@@ -24078,7 +23970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.506649094757518</v>
+        <v>1.513529910105725</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.565465248100637</v>
@@ -24167,7 +24059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517060523393507</v>
+        <v>1.526489779156872</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.553175953074538</v>
@@ -24256,7 +24148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.518100876152282</v>
+        <v>1.524814126744525</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.51761243827949</v>
@@ -24345,7 +24237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.53007769159956</v>
+        <v>1.537518801201621</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.88190565808514</v>
@@ -24434,7 +24326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.52130888683376</v>
+        <v>1.531679192444775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.832900298905031</v>
@@ -24523,7 +24415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533299753659672</v>
+        <v>1.545179648575564</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.782261130547436</v>
@@ -24612,7 +24504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529056068106842</v>
+        <v>1.53929130199577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.588395158016039</v>
@@ -24701,7 +24593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.506452016516863</v>
+        <v>1.522024299444973</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.722959747032742</v>
@@ -24790,7 +24682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514330564736039</v>
+        <v>1.524285611999716</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.553246791125688</v>
@@ -24879,7 +24771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.511816010300906</v>
+        <v>1.519210952707799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.728303359637805</v>
@@ -24968,7 +24860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.511483936500415</v>
+        <v>1.521655575490941</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.717514033452366</v>
@@ -25057,7 +24949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496836792438923</v>
+        <v>1.503602550985978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.849510139480793</v>
@@ -25146,7 +25038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.496959082679841</v>
+        <v>1.505699347325321</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.861071114673893</v>
@@ -25235,7 +25127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.469171551282182</v>
+        <v>1.473178715355193</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.468906305420651</v>
@@ -25324,7 +25216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.472844080888053</v>
+        <v>1.479916065294836</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.627252167700896</v>
@@ -25413,7 +25305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.475271001134811</v>
+        <v>1.474878476863852</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.716633901414989</v>
@@ -25502,7 +25394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.475825320406414</v>
+        <v>1.475358091920103</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.605197755865373</v>
@@ -25591,7 +25483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.478769841741163</v>
+        <v>1.480547820623122</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.49806975201327</v>
@@ -25680,7 +25572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474346619747692</v>
+        <v>1.476800919068304</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.625169316601719</v>
@@ -25769,7 +25661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483842282978971</v>
+        <v>1.48540593773537</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.603968326594097</v>
@@ -25858,7 +25750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.48915922602397</v>
+        <v>1.489402039848516</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.685970655651511</v>
@@ -25947,7 +25839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.493274634028795</v>
+        <v>1.49309479566533</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.672703462081631</v>
@@ -26036,7 +25928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516150376292961</v>
+        <v>1.509958110555004</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.604543979549541</v>
@@ -26125,7 +26017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.539021582739471</v>
+        <v>1.531190053733231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.752192666869539</v>
@@ -26214,7 +26106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550736489128982</v>
+        <v>1.542558257854912</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.542419758961204</v>
@@ -26303,7 +26195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.571972098309538</v>
+        <v>1.561227744930497</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.658728963208475</v>
@@ -26392,7 +26284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597940180612117</v>
+        <v>1.588993001033847</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.6764608990543</v>
@@ -26481,7 +26373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607407349996636</v>
+        <v>1.597993344655369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.422252434614534</v>
@@ -26570,7 +26462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647366867135527</v>
+        <v>1.635118650492215</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.514867122307629</v>
@@ -26659,7 +26551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.666141942177453</v>
+        <v>1.652578025988851</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.063213290459201</v>
@@ -26748,7 +26640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675569112906386</v>
+        <v>1.66660015262255</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.29935283011912</v>
@@ -26837,7 +26729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671311196123326</v>
+        <v>1.657635520329371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.361272459614133</v>
@@ -26926,7 +26818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.669259455882743</v>
+        <v>1.652760758752041</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.515105717878196</v>
@@ -27015,7 +26907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671847930594265</v>
+        <v>1.656897203029394</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.523519823322366</v>
@@ -27104,7 +26996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.677556137174301</v>
+        <v>1.664689423873212</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.240969089353054</v>
@@ -27193,7 +27085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.671543768566026</v>
+        <v>1.661001241027975</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.425746752065837</v>
@@ -27282,7 +27174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.679010843503209</v>
+        <v>1.667442472576486</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.506756108488252</v>
@@ -27371,7 +27263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.684134612273028</v>
+        <v>1.67670897676396</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.588383180562679</v>
@@ -27460,7 +27352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.678286841050636</v>
+        <v>1.679656844302998</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.614916085303797</v>
@@ -27549,7 +27441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675435797006149</v>
+        <v>1.681332442038568</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.685483693188763</v>
@@ -27638,7 +27530,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.664085594279046</v>
+        <v>1.669956173119126</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.680768986843816</v>
@@ -27727,7 +27619,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.669716861504819</v>
+        <v>1.670481573851866</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.679894410015253</v>
@@ -27816,7 +27708,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.672980443919055</v>
+        <v>1.669436599726321</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.587664523819535</v>
@@ -27905,7 +27797,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.687554001458904</v>
+        <v>1.678574473789192</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.593857928747366</v>
@@ -27994,7 +27886,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.691238883740009</v>
+        <v>1.679984728543</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.240614034415028</v>
@@ -28083,7 +27975,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688823567475198</v>
+        <v>1.675017652359379</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.95583014702915</v>
@@ -28172,7 +28064,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.695941483552108</v>
+        <v>1.684687216016759</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.956569405997078</v>
@@ -28261,7 +28153,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.699253002610383</v>
+        <v>1.683829006456051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.791741638993611</v>
@@ -28547,7 +28439,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.102575923864962</v>
+        <v>1.084903811085308</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.882822957975215</v>
@@ -28636,7 +28528,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.102502448330197</v>
+        <v>1.085021087360674</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.829869828992904</v>
@@ -28725,7 +28617,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.103090366809647</v>
+        <v>1.086101427204078</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.832891862767854</v>
@@ -28814,7 +28706,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.10279824407191</v>
+        <v>1.084819901086175</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.960604721779958</v>
@@ -28903,7 +28795,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.10822597213449</v>
+        <v>1.094401979485283</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.950966960594812</v>
@@ -28992,7 +28884,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.100707114118621</v>
+        <v>1.087754916411238</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.820425119871524</v>
@@ -29081,7 +28973,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.105713670733689</v>
+        <v>1.092854689173074</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.036855875109107</v>
@@ -29170,7 +29062,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.113734579502309</v>
+        <v>1.101706041583103</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.094387133544256</v>
@@ -29259,7 +29151,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.118593951739842</v>
+        <v>1.105576748484732</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.935527821156876</v>
@@ -29348,7 +29240,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.124961001078854</v>
+        <v>1.113035648983027</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.886564872153567</v>
@@ -29437,7 +29329,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.130095025646114</v>
+        <v>1.118256900410678</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.920513116223457</v>
@@ -29526,7 +29418,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.138545716157617</v>
+        <v>1.127822692380799</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.977178129316207</v>
@@ -29615,7 +29507,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.135748475788654</v>
+        <v>1.124872338289579</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.985571687867106</v>
@@ -29704,7 +29596,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.144629478178153</v>
+        <v>1.130742747185937</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.81645482632699</v>
@@ -29793,7 +29685,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.151453766807402</v>
+        <v>1.13743282546639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.870915306976944</v>
@@ -29882,7 +29774,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.160818641540239</v>
+        <v>1.146953203902206</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.885157620906925</v>
@@ -29971,7 +29863,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.159986100264875</v>
+        <v>1.146054301271196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.006604887070765</v>
@@ -30060,7 +29952,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.160025614474116</v>
+        <v>1.14653543559081</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.962343781817145</v>
@@ -30149,7 +30041,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.158343856507186</v>
+        <v>1.146506066340284</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.979230661823095</v>
@@ -30238,7 +30130,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.164564835508562</v>
+        <v>1.153587570888796</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.86065716982611</v>
@@ -30327,7 +30219,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.161554623101309</v>
+        <v>1.150831331985106</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.025580798545749</v>
@@ -30416,7 +30308,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.155355726877969</v>
+        <v>1.146896742916012</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.071761216733265</v>
@@ -30505,7 +30397,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.159211449129916</v>
+        <v>1.14679276041465</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.006180447365836</v>
@@ -30594,7 +30486,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.16431911593025</v>
+        <v>1.15873625657803</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.043571793203797</v>
@@ -30683,7 +30575,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.147857635776512</v>
+        <v>1.137883318555997</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.010355863582192</v>
@@ -30772,7 +30664,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.148072289629802</v>
+        <v>1.143924871751957</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.987191747102256</v>
@@ -30861,7 +30753,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.146483444609784</v>
+        <v>1.137139936607302</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.061709873625411</v>
@@ -30950,7 +30842,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.149323918316075</v>
+        <v>1.144502623405176</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.031563801064621</v>
@@ -31039,7 +30931,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.156239815575559</v>
+        <v>1.150243765427998</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.853186868483935</v>
@@ -31128,7 +31020,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.151309776853819</v>
+        <v>1.148674160107951</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.96478656418526</v>
@@ -31217,7 +31109,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.151988342726114</v>
+        <v>1.146683614604772</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.007874783237613</v>
@@ -31306,7 +31198,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.15776313294306</v>
+        <v>1.153443786714814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.021194236989618</v>
@@ -31395,7 +31287,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.172938166560071</v>
+        <v>1.170262626142762</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.90506181678101</v>
@@ -31484,7 +31376,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.189600846191625</v>
+        <v>1.186474021180655</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.886392863889707</v>
@@ -31573,7 +31465,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.191142491446236</v>
+        <v>1.187390872984725</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.880143047089372</v>
@@ -31662,7 +31554,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.192602710601852</v>
+        <v>1.188529924661068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.938822518725937</v>
@@ -31751,7 +31643,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.203281743092753</v>
+        <v>1.200889154572178</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.894442164141513</v>
@@ -31840,7 +31732,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.217272783039992</v>
+        <v>1.214477720844258</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.838316646940703</v>
@@ -31929,7 +31821,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.226584744901322</v>
+        <v>1.221243066813839</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.745188487216894</v>
@@ -32018,7 +31910,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.292827967646447</v>
+        <v>1.29142409136796</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.945157516570879</v>
@@ -32107,7 +31999,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.294109558351221</v>
+        <v>1.286199055795733</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.148880065898413</v>
@@ -32196,7 +32088,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.312005335317592</v>
+        <v>1.310568694375246</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.997913703675593</v>
@@ -32285,7 +32177,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.32910844769302</v>
+        <v>1.324252424476407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.007542886039521</v>
@@ -32374,7 +32266,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.360414209615453</v>
+        <v>1.357146303584782</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.592151386938035</v>
@@ -32463,7 +32355,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.369814910189234</v>
+        <v>1.370085416214637</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.270971143844537</v>
@@ -32552,7 +32444,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.385442418207197</v>
+        <v>1.387987690922384</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.341218115037365</v>
@@ -32641,7 +32533,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.379652167660731</v>
+        <v>1.378850265518091</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.711387395979791</v>
@@ -32730,7 +32622,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370670361657515</v>
+        <v>1.375916178067941</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.540038991217171</v>
@@ -32819,7 +32711,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.366432776307772</v>
+        <v>1.373683551059742</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.464086834615741</v>
@@ -32908,7 +32800,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.375013370221762</v>
+        <v>1.380804706239717</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.575378741079173</v>
@@ -32997,7 +32889,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.384754156659155</v>
+        <v>1.391822513931795</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.309530175241124</v>
@@ -33086,7 +32978,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.381893940534553</v>
+        <v>1.391220194746422</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.835666084291867</v>
@@ -33175,7 +33067,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.379488206779781</v>
+        <v>1.390902825501722</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.565107304628821</v>
@@ -33264,7 +33156,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.352977790243817</v>
+        <v>1.361196834070954</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.362592274639862</v>
@@ -33353,7 +33245,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.336693595996275</v>
+        <v>1.349117263163335</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.180904151908449</v>
@@ -33442,7 +33334,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.328729805955244</v>
+        <v>1.338032924929662</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.355630269875182</v>
@@ -33531,7 +33423,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.323028684356759</v>
+        <v>1.333986328775892</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.395668820681176</v>
@@ -33620,7 +33512,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.308650704968773</v>
+        <v>1.322309911561722</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.399499830267602</v>
@@ -33709,7 +33601,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.3074983668194</v>
+        <v>1.318542472363259</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.394094865287282</v>
@@ -33798,7 +33690,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.307822731228028</v>
+        <v>1.318321124049842</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.289414757779808</v>
@@ -33887,7 +33779,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.311464403309082</v>
+        <v>1.322384633202159</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.334733453459418</v>
@@ -34173,7 +34065,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.231426514875917</v>
+        <v>1.24171047849146</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.52320982780009</v>
@@ -34262,7 +34154,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.238718651495162</v>
+        <v>1.249209563309253</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.509340063656343</v>
@@ -34351,7 +34243,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.249764695163923</v>
+        <v>1.260716378904306</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.522167712840951</v>
@@ -34440,7 +34332,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.246615358458703</v>
+        <v>1.257213796728376</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.520145246768473</v>
@@ -34529,7 +34421,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.23651025295835</v>
+        <v>1.246554243012588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.529492569444341</v>
@@ -34618,7 +34510,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.237490065863865</v>
+        <v>1.247597566484171</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.5356699421198</v>
@@ -34707,7 +34599,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.208064284671931</v>
+        <v>1.21057377884673</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.567640818638919</v>
@@ -34796,7 +34688,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.18991835834648</v>
+        <v>1.19468560080454</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.591393160509554</v>
@@ -34885,7 +34777,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.198520090898623</v>
+        <v>1.203152589492995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.578519099247632</v>
@@ -34974,7 +34866,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.205054211349029</v>
+        <v>1.212249079856285</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.592669109714804</v>
@@ -35063,7 +34955,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.210465679399908</v>
+        <v>1.218470292941373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.57016029852688</v>
@@ -35152,7 +35044,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.214876575214549</v>
+        <v>1.220545082063466</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.617417133009568</v>
@@ -35241,7 +35133,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.240448874912569</v>
+        <v>1.25587880354627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.663356232590053</v>
@@ -35330,7 +35222,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.241748578271506</v>
+        <v>1.258487747829237</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.620266402325657</v>
@@ -35419,7 +35311,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.246673706375892</v>
+        <v>1.263884332369155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.619789685124304</v>
@@ -35508,7 +35400,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.241809465012882</v>
+        <v>1.259899353573748</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.635603552873429</v>
@@ -35597,7 +35489,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.243617595905569</v>
+        <v>1.260247471030051</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.631994750446438</v>
@@ -35686,7 +35578,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.241635850971204</v>
+        <v>1.258691928473319</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.62492645033883</v>
@@ -35775,7 +35667,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.245560093919378</v>
+        <v>1.2614668106416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.714401461079589</v>
@@ -35864,7 +35756,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.246798959023848</v>
+        <v>1.266430163436272</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.630346428102485</v>
@@ -35953,7 +35845,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.217126193486303</v>
+        <v>1.230892685838942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.620605004687854</v>
@@ -36042,7 +35934,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.275619079071389</v>
+        <v>1.297399158189397</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.638417690585358</v>
@@ -36131,7 +36023,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.301054005912483</v>
+        <v>1.325278038510137</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.862908251479077</v>
@@ -36220,7 +36112,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.303738833996011</v>
+        <v>1.327234729170036</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.806734062599805</v>
@@ -36309,7 +36201,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.27776320548211</v>
+        <v>1.292977174718343</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.86070414497424</v>
@@ -36398,7 +36290,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.262495490192757</v>
+        <v>1.282021290613197</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.883589545287474</v>
@@ -36487,7 +36379,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.246949122156581</v>
+        <v>1.244709353033818</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.644347663615469</v>
@@ -36576,7 +36468,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.239553063857886</v>
+        <v>1.254762561360098</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.640523874037657</v>
@@ -36665,7 +36557,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.247867308354765</v>
+        <v>1.261210554416029</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.66977548632588</v>
@@ -36754,7 +36646,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.232683442081075</v>
+        <v>1.245980559271205</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.664367093610736</v>
@@ -36843,7 +36735,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.229708077668506</v>
+        <v>1.244606967054312</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.681953567274705</v>
@@ -36932,7 +36824,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.229109374719423</v>
+        <v>1.243993529706959</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.68925901719128</v>
@@ -37021,7 +36913,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.235408773566655</v>
+        <v>1.250881216034241</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.676990011816428</v>
@@ -37110,7 +37002,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.241599372754491</v>
+        <v>1.254684504437108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.686718154588889</v>
@@ -37199,7 +37091,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.261885648286991</v>
+        <v>1.273659999992267</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.646673907097084</v>
@@ -37288,7 +37180,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.300732185761263</v>
+        <v>1.316419981616258</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.63334549747738</v>
@@ -37377,7 +37269,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.304763585892996</v>
+        <v>1.318455845746652</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.646030456467563</v>
@@ -37466,7 +37358,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.310984000016264</v>
+        <v>1.323111565645452</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.650058994544191</v>
@@ -37555,7 +37447,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.318154034286707</v>
+        <v>1.330795840136417</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.659862819047049</v>
@@ -37644,7 +37536,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.355855350108419</v>
+        <v>1.371328830555598</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.677597066826594</v>
@@ -37733,7 +37625,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.367782215077172</v>
+        <v>1.380884842048139</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.602020180266289</v>
@@ -37822,7 +37714,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.503091266366404</v>
+        <v>1.51200556060015</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.676441426323245</v>
@@ -37911,7 +37803,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582483341011759</v>
+        <v>1.587558075674621</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.765099358352634</v>
@@ -38000,7 +37892,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612810485025321</v>
+        <v>1.614139640639518</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.55301373873069</v>
@@ -38089,7 +37981,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674956536800595</v>
+        <v>1.666527897190301</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.807070972075269</v>
@@ -38178,7 +38070,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.715364335029267</v>
+        <v>1.699822455771671</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.23532402076337</v>
@@ -38267,7 +38159,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.725868799161309</v>
+        <v>1.712161391310975</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.292838806775084</v>
@@ -38356,7 +38248,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.723084119807285</v>
+        <v>1.71229330260649</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.703152812001518</v>
@@ -38445,7 +38337,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.716300636020938</v>
+        <v>1.714084742028818</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.723297070389227</v>
@@ -38534,7 +38426,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.71608810341828</v>
+        <v>1.716914545404821</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.480068325238528</v>
@@ -38623,7 +38515,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.717966311571891</v>
+        <v>1.720755043806017</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.385387713170985</v>
@@ -38712,7 +38604,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.718678225438903</v>
+        <v>1.72928871421672</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.434621924715532</v>
@@ -38801,7 +38693,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.712153387770402</v>
+        <v>1.725390852359612</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.638204318624399</v>
@@ -38890,7 +38782,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.723787380518023</v>
+        <v>1.736899177178148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.521156249622781</v>
@@ -38979,7 +38871,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.724992021888291</v>
+        <v>1.735983221347287</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.311607381209936</v>
@@ -39068,7 +38960,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.720842537885108</v>
+        <v>1.723417377300689</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.910280649424345</v>
@@ -39157,7 +39049,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.683394434820014</v>
+        <v>1.701206246544909</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.816774845106042</v>
@@ -39246,7 +39138,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.692031679402831</v>
+        <v>1.701665906469747</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.89120678979911</v>
@@ -39335,7 +39227,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.694802750259031</v>
+        <v>1.701266471935153</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.206386480407732</v>
@@ -39424,7 +39316,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.696453934239996</v>
+        <v>1.704174351566363</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.007665768261268</v>
@@ -39513,7 +39405,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.673061793675354</v>
+        <v>1.68503592784737</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.118078119535025</v>
